--- a/notes/class_inventory_infra.xlsx
+++ b/notes/class_inventory_infra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\projects\appvocai-discover\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0689CEA-F74F-4922-BBA4-67EEA5A016F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C02FB-D077-4ED2-9464-074115CB05D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="0" windowWidth="30030" windowHeight="21600" xr2:uid="{58B1A7E8-2935-4360-998E-E8029AF79587}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Class</t>
   </si>
@@ -91,9 +91,6 @@
     <t>infra.storage.repo.zaharia</t>
   </si>
   <si>
-    <t>infra.storage.repo.__pycache__.repo</t>
-  </si>
-  <si>
     <t>IO</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>Summary</t>
@@ -1034,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE9D6A9-AE48-48DB-AE0E-24FE8493F8A2}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1072,14 +1066,14 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D:D,K2)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1093,14 +1087,14 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L4" si="0">COUNTIF(D:D,K3)</f>
-        <v>8</v>
+        <f>COUNTIF(D:D,K3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1114,14 +1108,14 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNTIF(D:D,K4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1135,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L5">
         <v>31</v>
@@ -1155,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1197,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1211,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1225,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1239,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1253,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1267,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1281,7 +1275,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,13 +1297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,10 +1314,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,10 +1328,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,10 +1356,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,10 +1370,10 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,10 +1384,10 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,10 +1398,10 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,10 +1412,10 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,13 +1423,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,13 +1437,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,13 +1451,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,13 +1465,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,13 +1479,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,13 +1493,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,27 +1507,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
